--- a/data/11月.xlsx
+++ b/data/11月.xlsx
@@ -83,7 +83,7 @@
     <t>2023烹饪高考英才1班</t>
   </si>
   <si>
-    <t>23酒店烹饪升学班（合班）西餐操作室</t>
+    <t>23酒店烹饪升学班（合班）</t>
   </si>
   <si>
     <t xml:space="preserve"> 2023计应平面升学班（合班）</t>
@@ -143,7 +143,7 @@
     <t>2024中餐3班(英才)</t>
   </si>
   <si>
-    <t>2024中餐4班(金龙鱼)</t>
+    <t>2024中餐4班</t>
   </si>
   <si>
     <t>2024中餐5班(实验)</t>
@@ -203,7 +203,7 @@
     <t>2025中餐2班（高职）</t>
   </si>
   <si>
-    <t>2025中餐3班（金龙鱼）</t>
+    <t>2025中餐3班</t>
   </si>
   <si>
     <t>2025中餐4班（实验）</t>
@@ -1130,7 +1130,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1174,7 +1174,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1201,16 +1201,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1225,10 +1225,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1239,6 +1239,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1258,7 +1261,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1282,7 +1288,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1300,7 +1306,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1846,13 +1852,13 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2:N37"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.62962962962963" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.8888888888889" style="4" customWidth="1"/>
+    <col min="2" max="2" width="34.4444444444444" style="4" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.5277777777778" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.4444444444444" style="3" customWidth="1"/>
@@ -2939,7 +2945,7 @@
       <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="36" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="21">
@@ -2976,30 +2982,30 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" ht="19" customHeight="1" spans="1:23">
-      <c r="A30" s="36">
+      <c r="A30" s="37">
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38">
-        <v>-1</v>
-      </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39">
+      <c r="C30" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="40">
         <v>3</v>
       </c>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="41">
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="42">
         <v>5.5</v>
       </c>
       <c r="O30" s="22">
@@ -3019,7 +3025,7 @@
       <c r="A31" s="13">
         <v>30</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="43" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="21">
@@ -3059,33 +3065,33 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" ht="31.2" spans="1:23">
-      <c r="A32" s="36">
+    <row r="32" ht="15.6" spans="1:23">
+      <c r="A32" s="37">
         <v>31</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38">
+      <c r="C32" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39">
         <v>-5</v>
       </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="39">
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="40">
         <v>-2</v>
       </c>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39">
+      <c r="J32" s="40"/>
+      <c r="K32" s="40">
         <v>-5</v>
       </c>
-      <c r="L32" s="40"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38">
+      <c r="L32" s="41"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39">
         <v>12.5</v>
       </c>
       <c r="O32" s="20">
@@ -3093,39 +3099,39 @@
         <v>1000.5</v>
       </c>
     </row>
-    <row r="33" ht="46.8" spans="1:15">
-      <c r="A33" s="36">
+    <row r="33" ht="15.6" spans="1:15">
+      <c r="A33" s="37">
         <v>32</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D33" s="38">
+      <c r="C33" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="39">
         <v>-10</v>
       </c>
-      <c r="E33" s="43">
-        <v>-1</v>
-      </c>
-      <c r="F33" s="38">
-        <v>-1</v>
-      </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="39">
+      <c r="E33" s="45">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="39">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="40">
         <v>3</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="40">
         <v>2</v>
       </c>
-      <c r="K33" s="39"/>
-      <c r="L33" s="40">
-        <v>-1</v>
-      </c>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38">
+      <c r="K33" s="40"/>
+      <c r="L33" s="41">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39">
         <v>7.5</v>
       </c>
       <c r="O33" s="22">
@@ -3133,45 +3139,45 @@
         <v>999.5</v>
       </c>
     </row>
-    <row r="34" ht="46.8" spans="1:15">
-      <c r="A34" s="36">
+    <row r="34" ht="15.6" spans="1:15">
+      <c r="A34" s="37">
         <v>33</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D34" s="38">
-        <v>-1</v>
-      </c>
-      <c r="E34" s="44">
+      <c r="C34" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="39">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="46">
         <v>-2</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="39">
         <v>-6</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="39">
         <v>-5</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="39">
         <v>-13</v>
       </c>
-      <c r="I34" s="39">
+      <c r="I34" s="40">
         <v>-5</v>
       </c>
-      <c r="J34" s="39">
+      <c r="J34" s="40">
         <v>5</v>
       </c>
-      <c r="K34" s="39">
+      <c r="K34" s="40">
         <v>-5.5</v>
       </c>
-      <c r="L34" s="40">
-        <v>-1</v>
-      </c>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38">
+      <c r="L34" s="41">
+        <v>-1</v>
+      </c>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39">
         <v>5</v>
       </c>
       <c r="O34" s="20">
@@ -3179,37 +3185,37 @@
         <v>971.5</v>
       </c>
     </row>
-    <row r="35" ht="62.4" spans="1:15">
-      <c r="A35" s="36">
+    <row r="35" ht="15.6" spans="1:15">
+      <c r="A35" s="37">
         <v>34</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D35" s="38">
-        <v>-1</v>
-      </c>
-      <c r="E35" s="38">
+      <c r="C35" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="39">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="39">
         <v>-2</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="39">
         <v>-5</v>
       </c>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L35" s="40">
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40">
+        <v>-1</v>
+      </c>
+      <c r="L35" s="41">
         <v>-9</v>
       </c>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38">
+      <c r="M35" s="39"/>
+      <c r="N35" s="39">
         <v>5.5</v>
       </c>
       <c r="O35" s="20">
@@ -3217,41 +3223,41 @@
         <v>987.5</v>
       </c>
     </row>
-    <row r="36" ht="46.8" spans="1:15">
-      <c r="A36" s="36">
+    <row r="36" ht="15.6" spans="1:15">
+      <c r="A36" s="37">
         <v>35</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D36" s="38">
+      <c r="C36" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="39">
         <v>-3</v>
       </c>
-      <c r="E36" s="38">
-        <v>-1</v>
-      </c>
-      <c r="F36" s="38">
+      <c r="E36" s="39">
+        <v>-1</v>
+      </c>
+      <c r="F36" s="39">
         <v>-6</v>
       </c>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="39">
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="40">
         <v>-2</v>
       </c>
-      <c r="J36" s="39">
-        <v>-1</v>
-      </c>
-      <c r="K36" s="39">
+      <c r="J36" s="40">
+        <v>-1</v>
+      </c>
+      <c r="K36" s="40">
         <v>-6</v>
       </c>
-      <c r="L36" s="40">
+      <c r="L36" s="41">
         <v>-3</v>
       </c>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38">
+      <c r="M36" s="39"/>
+      <c r="N36" s="39">
         <v>5.5</v>
       </c>
       <c r="O36" s="20">
@@ -3259,37 +3265,37 @@
         <v>983.5</v>
       </c>
     </row>
-    <row r="37" ht="46.8" spans="1:15">
-      <c r="A37" s="36">
+    <row r="37" ht="15.6" spans="1:15">
+      <c r="A37" s="37">
         <v>36</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38">
+      <c r="C37" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39">
         <v>-3</v>
       </c>
-      <c r="F37" s="38">
-        <v>-1</v>
-      </c>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="39">
+      <c r="F37" s="39">
+        <v>-1</v>
+      </c>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="40">
         <v>-2</v>
       </c>
-      <c r="J37" s="39">
+      <c r="J37" s="40">
         <v>3</v>
       </c>
-      <c r="K37" s="39"/>
-      <c r="L37" s="40">
+      <c r="K37" s="40"/>
+      <c r="L37" s="41">
         <v>-4</v>
       </c>
-      <c r="M37" s="38"/>
-      <c r="N37" s="45">
+      <c r="M37" s="39"/>
+      <c r="N37" s="47">
         <v>12.5</v>
       </c>
       <c r="O37" s="20">
@@ -3298,87 +3304,87 @@
       </c>
     </row>
     <row r="38" ht="18.75" customHeight="1" spans="1:15">
-      <c r="A38" s="36">
+      <c r="A38" s="37">
         <v>37</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38">
-        <v>-1</v>
-      </c>
-      <c r="F38" s="38">
+      <c r="C38" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39">
+        <v>-1</v>
+      </c>
+      <c r="F38" s="39">
         <v>-7</v>
       </c>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38">
+      <c r="G38" s="39"/>
+      <c r="H38" s="39">
         <v>-2</v>
       </c>
-      <c r="I38" s="39">
+      <c r="I38" s="40">
         <v>-2</v>
       </c>
-      <c r="J38" s="39">
+      <c r="J38" s="40">
         <v>-2</v>
       </c>
-      <c r="K38" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L38" s="39">
+      <c r="K38" s="40">
+        <v>-1</v>
+      </c>
+      <c r="L38" s="40">
         <v>-3</v>
       </c>
-      <c r="M38" s="46"/>
-      <c r="N38" s="47">
+      <c r="M38" s="48"/>
+      <c r="N38" s="49">
         <v>2</v>
       </c>
-      <c r="O38" s="39">
+      <c r="O38" s="40">
         <f t="shared" si="0"/>
         <v>984</v>
       </c>
     </row>
     <row r="39" ht="18.75" customHeight="1" spans="1:15">
-      <c r="A39" s="36">
+      <c r="A39" s="37">
         <v>38</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D39" s="38">
-        <v>-1</v>
-      </c>
-      <c r="E39" s="48">
+      <c r="C39" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D39" s="39">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="50">
         <v>-3</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="39">
         <v>-6</v>
       </c>
-      <c r="G39" s="38">
+      <c r="G39" s="39">
         <v>-3</v>
       </c>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39">
+      <c r="H39" s="39"/>
+      <c r="I39" s="40">
         <v>-2</v>
       </c>
-      <c r="J39" s="39">
+      <c r="J39" s="40">
         <v>3</v>
       </c>
-      <c r="K39" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L39" s="39">
-        <v>-1</v>
-      </c>
-      <c r="M39" s="40"/>
-      <c r="N39" s="49">
+      <c r="K39" s="40">
+        <v>-1</v>
+      </c>
+      <c r="L39" s="40">
+        <v>-1</v>
+      </c>
+      <c r="M39" s="41"/>
+      <c r="N39" s="51">
         <v>12</v>
       </c>
-      <c r="O39" s="39">
+      <c r="O39" s="40">
         <f t="shared" si="0"/>
         <v>998</v>
       </c>
@@ -3387,34 +3393,34 @@
       <c r="A40" s="13">
         <v>5</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="38">
+      <c r="C40" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D40" s="39"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="39">
         <v>-3</v>
       </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39">
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="40">
         <v>-3</v>
       </c>
-      <c r="J40" s="39">
+      <c r="J40" s="40">
         <v>5</v>
       </c>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39">
+      <c r="K40" s="40"/>
+      <c r="L40" s="40">
         <v>-3</v>
       </c>
-      <c r="M40" s="40"/>
-      <c r="N40" s="49">
+      <c r="M40" s="41"/>
+      <c r="N40" s="51">
         <v>8.5</v>
       </c>
-      <c r="O40" s="39">
+      <c r="O40" s="40">
         <f t="shared" si="0"/>
         <v>1004.5</v>
       </c>
@@ -3423,30 +3429,30 @@
       <c r="A41" s="13">
         <v>40</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38">
-        <v>-1</v>
-      </c>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39">
+      <c r="C41" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39">
+        <v>-1</v>
+      </c>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40">
         <v>3</v>
       </c>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="49">
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="51">
         <v>7</v>
       </c>
-      <c r="O41" s="39">
+      <c r="O41" s="40">
         <f t="shared" si="0"/>
         <v>1009</v>
       </c>
@@ -3455,38 +3461,38 @@
       <c r="A42" s="13">
         <v>41</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38">
-        <v>-1</v>
-      </c>
-      <c r="F42" s="38">
+      <c r="C42" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39">
+        <v>-1</v>
+      </c>
+      <c r="F42" s="39">
         <v>-8</v>
       </c>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="39">
-        <v>-1</v>
-      </c>
-      <c r="J42" s="39">
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="40">
+        <v>-1</v>
+      </c>
+      <c r="J42" s="40">
         <v>2</v>
       </c>
-      <c r="K42" s="39">
+      <c r="K42" s="40">
         <v>-2</v>
       </c>
-      <c r="L42" s="39">
-        <v>-1</v>
-      </c>
-      <c r="M42" s="40"/>
-      <c r="N42" s="49">
+      <c r="L42" s="40">
+        <v>-1</v>
+      </c>
+      <c r="M42" s="41"/>
+      <c r="N42" s="51">
         <v>6</v>
       </c>
-      <c r="O42" s="39">
+      <c r="O42" s="40">
         <f t="shared" si="0"/>
         <v>995</v>
       </c>
@@ -3495,35 +3501,35 @@
       <c r="A43" s="13">
         <v>42</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C43" s="21">
         <v>1000</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="39">
         <v>-3</v>
       </c>
-      <c r="E43" s="38">
-        <v>-1</v>
-      </c>
-      <c r="F43" s="38">
+      <c r="E43" s="39">
+        <v>-1</v>
+      </c>
+      <c r="F43" s="39">
         <v>-8</v>
       </c>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="39">
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="40">
         <v>-5</v>
       </c>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39">
+      <c r="J43" s="40"/>
+      <c r="K43" s="40">
         <v>-2.5</v>
       </c>
-      <c r="L43" s="39">
+      <c r="L43" s="40">
         <v>-2</v>
       </c>
-      <c r="M43" s="40"/>
-      <c r="N43" s="49">
+      <c r="M43" s="41"/>
+      <c r="N43" s="51">
         <v>6</v>
       </c>
       <c r="O43" s="18">
@@ -3535,34 +3541,34 @@
       <c r="A44" s="13">
         <v>43</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="43" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="21">
         <v>1000</v>
       </c>
-      <c r="D44" s="38">
-        <v>-1</v>
-      </c>
-      <c r="E44" s="38">
-        <v>-1</v>
-      </c>
-      <c r="F44" s="38">
+      <c r="D44" s="39">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="39">
+        <v>-1</v>
+      </c>
+      <c r="F44" s="39">
         <v>-4</v>
       </c>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="39">
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="40">
         <v>4</v>
       </c>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="49">
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="51">
         <v>9</v>
       </c>
-      <c r="O44" s="39">
+      <c r="O44" s="40">
         <f t="shared" si="0"/>
         <v>1007</v>
       </c>
@@ -3571,29 +3577,29 @@
       <c r="A45" s="13">
         <v>44</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="43" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="21">
         <v>1000</v>
       </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38">
-        <v>-1</v>
-      </c>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="39">
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39">
+        <v>-1</v>
+      </c>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="40">
         <v>2</v>
       </c>
-      <c r="J45" s="39">
+      <c r="J45" s="40">
         <v>8</v>
       </c>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="49">
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="51">
         <v>11.5</v>
       </c>
       <c r="O45" s="18">
@@ -3605,36 +3611,36 @@
       <c r="A46" s="13">
         <v>45</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="43" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="21">
         <v>1000</v>
       </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38">
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39">
         <v>-2</v>
       </c>
-      <c r="G46" s="38">
-        <v>-1</v>
-      </c>
-      <c r="H46" s="38"/>
-      <c r="I46" s="39">
+      <c r="G46" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H46" s="39"/>
+      <c r="I46" s="40">
         <v>9</v>
       </c>
-      <c r="J46" s="39">
+      <c r="J46" s="40">
         <v>3</v>
       </c>
-      <c r="K46" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L46" s="39"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="49">
+      <c r="K46" s="40">
+        <v>-1</v>
+      </c>
+      <c r="L46" s="40"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="51">
         <v>8</v>
       </c>
-      <c r="O46" s="39">
+      <c r="O46" s="40">
         <f t="shared" si="0"/>
         <v>1016</v>
       </c>
@@ -3643,36 +3649,36 @@
       <c r="A47" s="13">
         <v>46</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="43" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="21">
         <v>1000</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="39">
         <v>-3</v>
       </c>
-      <c r="E47" s="38">
+      <c r="E47" s="39">
         <v>-3</v>
       </c>
-      <c r="F47" s="38">
-        <v>-1</v>
-      </c>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39">
+      <c r="F47" s="39">
+        <v>-1</v>
+      </c>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="40">
         <v>6</v>
       </c>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39">
+      <c r="J47" s="40"/>
+      <c r="K47" s="40">
         <v>-3</v>
       </c>
-      <c r="L47" s="39"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="49">
+      <c r="L47" s="40"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="51">
         <v>4.5</v>
       </c>
-      <c r="O47" s="39">
+      <c r="O47" s="40">
         <f t="shared" si="0"/>
         <v>1000.5</v>
       </c>
@@ -3681,38 +3687,38 @@
       <c r="A48" s="13">
         <v>47</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C48" s="21">
         <v>1000</v>
       </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38">
+      <c r="D48" s="39"/>
+      <c r="E48" s="39">
         <v>-4</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="39">
         <v>-22</v>
       </c>
-      <c r="G48" s="38">
+      <c r="G48" s="39">
         <v>-4</v>
       </c>
-      <c r="H48" s="38"/>
-      <c r="I48" s="39">
+      <c r="H48" s="39"/>
+      <c r="I48" s="40">
         <v>-4.5</v>
       </c>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39">
+      <c r="J48" s="40"/>
+      <c r="K48" s="40">
         <v>-0.5</v>
       </c>
-      <c r="L48" s="39">
+      <c r="L48" s="40">
         <v>-4</v>
       </c>
-      <c r="M48" s="40"/>
-      <c r="N48" s="49">
+      <c r="M48" s="41"/>
+      <c r="N48" s="51">
         <v>4.5</v>
       </c>
-      <c r="O48" s="39">
+      <c r="O48" s="40">
         <f t="shared" si="0"/>
         <v>965.5</v>
       </c>
@@ -3721,31 +3727,31 @@
       <c r="A49" s="13">
         <v>48</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="43" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="21">
         <v>1000</v>
       </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38">
-        <v>-1</v>
-      </c>
-      <c r="F49" s="38">
+      <c r="D49" s="39"/>
+      <c r="E49" s="39">
+        <v>-1</v>
+      </c>
+      <c r="F49" s="39">
         <v>-3</v>
       </c>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="39">
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="40">
         <v>2</v>
       </c>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39">
+      <c r="J49" s="40"/>
+      <c r="K49" s="40">
         <v>-2</v>
       </c>
-      <c r="L49" s="39"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="49">
+      <c r="L49" s="40"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="51">
         <v>6</v>
       </c>
       <c r="O49" s="18">
@@ -3753,143 +3759,143 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="50" ht="46.8" spans="1:15">
-      <c r="A50" s="36">
+    <row r="50" ht="15.6" spans="1:15">
+      <c r="A50" s="37">
         <v>49</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38">
-        <v>-1</v>
-      </c>
-      <c r="F50" s="38">
+      <c r="C50" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39">
+        <v>-1</v>
+      </c>
+      <c r="F50" s="39">
         <v>-6</v>
       </c>
-      <c r="G50" s="38">
-        <v>-1</v>
-      </c>
-      <c r="H50" s="38"/>
-      <c r="I50" s="39">
+      <c r="G50" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="40">
         <v>-7</v>
       </c>
-      <c r="J50" s="39">
-        <v>-1</v>
-      </c>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39">
-        <v>-1</v>
-      </c>
-      <c r="M50" s="40"/>
-      <c r="N50" s="49">
+      <c r="J50" s="40">
+        <v>-1</v>
+      </c>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40">
+        <v>-1</v>
+      </c>
+      <c r="M50" s="41"/>
+      <c r="N50" s="51">
         <v>7</v>
       </c>
-      <c r="O50" s="39">
+      <c r="O50" s="40">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
     </row>
-    <row r="51" ht="46.8" spans="1:15">
-      <c r="A51" s="36">
+    <row r="51" ht="15.6" spans="1:15">
+      <c r="A51" s="37">
         <v>50</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D51" s="38">
+      <c r="C51" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D51" s="39">
         <v>-2</v>
       </c>
-      <c r="E51" s="38">
+      <c r="E51" s="39">
         <v>-3</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F51" s="39">
         <v>-7</v>
       </c>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="39">
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="40">
         <v>6</v>
       </c>
-      <c r="J51" s="39">
+      <c r="J51" s="40">
         <v>2</v>
       </c>
-      <c r="K51" s="39">
+      <c r="K51" s="40">
         <v>-10.5</v>
       </c>
-      <c r="L51" s="39"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="49">
+      <c r="L51" s="40"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="51">
         <v>6.5</v>
       </c>
-      <c r="O51" s="39">
+      <c r="O51" s="40">
         <f t="shared" si="0"/>
         <v>992</v>
       </c>
     </row>
-    <row r="52" ht="46.8" spans="1:15">
-      <c r="A52" s="36">
+    <row r="52" ht="15.6" spans="1:15">
+      <c r="A52" s="37">
         <v>51</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39">
+      <c r="C52" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40">
         <v>-3</v>
       </c>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="49">
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="51">
         <v>1</v>
       </c>
-      <c r="O52" s="39">
+      <c r="O52" s="40">
         <f t="shared" si="0"/>
         <v>998</v>
       </c>
     </row>
-    <row r="53" ht="31.2" spans="1:15">
-      <c r="A53" s="36">
+    <row r="53" ht="15.6" spans="1:15">
+      <c r="A53" s="37">
         <v>52</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D53" s="51"/>
-      <c r="E53" s="52">
+      <c r="C53" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D53" s="53"/>
+      <c r="E53" s="54">
         <v>-2</v>
       </c>
-      <c r="F53" s="52">
-        <v>-1</v>
-      </c>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39">
+      <c r="F53" s="54">
+        <v>-1</v>
+      </c>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40">
         <v>-2</v>
       </c>
-      <c r="M53" s="40"/>
-      <c r="N53" s="53">
+      <c r="M53" s="41"/>
+      <c r="N53" s="55">
         <v>1</v>
       </c>
       <c r="O53" s="18">
@@ -3897,59 +3903,59 @@
         <v>996</v>
       </c>
     </row>
-    <row r="54" ht="31.2" spans="1:15">
-      <c r="A54" s="36">
+    <row r="54" ht="15.6" spans="1:15">
+      <c r="A54" s="37">
         <v>53</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="52">
+      <c r="C54" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D54" s="53"/>
+      <c r="E54" s="54">
         <v>-4</v>
       </c>
-      <c r="F54" s="51"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="53">
+      <c r="F54" s="53"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="55">
         <v>1</v>
       </c>
-      <c r="O54" s="39">
+      <c r="O54" s="40">
         <f t="shared" si="0"/>
         <v>997</v>
       </c>
     </row>
-    <row r="55" ht="31.2" spans="1:15">
-      <c r="A55" s="36">
+    <row r="55" ht="15.6" spans="1:15">
+      <c r="A55" s="37">
         <v>54</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52">
-        <v>-1</v>
-      </c>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="53">
+      <c r="C55" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D55" s="53"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54">
+        <v>-1</v>
+      </c>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="55">
         <v>-1</v>
       </c>
       <c r="O55" s="18">
@@ -3957,89 +3963,89 @@
         <v>998</v>
       </c>
     </row>
-    <row r="56" ht="31.2" spans="1:15">
-      <c r="A56" s="36">
+    <row r="56" ht="15.6" spans="1:15">
+      <c r="A56" s="37">
         <v>55</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="54">
-        <v>1000</v>
-      </c>
-      <c r="D56" s="55"/>
-      <c r="E56" s="52">
-        <v>-1</v>
-      </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39">
+      <c r="C56" s="56">
+        <v>1000</v>
+      </c>
+      <c r="D56" s="57"/>
+      <c r="E56" s="54">
+        <v>-1</v>
+      </c>
+      <c r="F56" s="54"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40">
         <v>-4</v>
       </c>
-      <c r="M56" s="40"/>
-      <c r="N56" s="53">
-        <v>-1</v>
-      </c>
-      <c r="O56" s="39">
+      <c r="M56" s="41"/>
+      <c r="N56" s="55">
+        <v>-1</v>
+      </c>
+      <c r="O56" s="40">
         <f t="shared" si="0"/>
         <v>994</v>
       </c>
     </row>
-    <row r="57" ht="31.2" spans="1:15">
-      <c r="A57" s="36">
+    <row r="57" ht="15.6" spans="1:15">
+      <c r="A57" s="37">
         <v>56</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D57" s="51"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="53">
+      <c r="C57" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D57" s="53"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="55">
         <v>-0.5</v>
       </c>
-      <c r="O57" s="39">
+      <c r="O57" s="40">
         <f t="shared" si="0"/>
         <v>999.5</v>
       </c>
     </row>
-    <row r="58" ht="31.2" spans="1:15">
-      <c r="A58" s="36">
+    <row r="58" ht="15.6" spans="1:15">
+      <c r="A58" s="37">
         <v>57</v>
       </c>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="52">
+      <c r="C58" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D58" s="53"/>
+      <c r="E58" s="54">
         <v>-2</v>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="53">
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="55">
         <v>2.5</v>
       </c>
       <c r="O58" s="18">
@@ -4047,29 +4053,29 @@
         <v>1000.5</v>
       </c>
     </row>
-    <row r="59" ht="31.2" spans="1:15">
-      <c r="A59" s="36">
+    <row r="59" ht="15.6" spans="1:15">
+      <c r="A59" s="37">
         <v>58</v>
       </c>
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D59" s="51"/>
-      <c r="E59" s="52">
-        <v>-1</v>
-      </c>
-      <c r="F59" s="52"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="53">
+      <c r="C59" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D59" s="53"/>
+      <c r="E59" s="54">
+        <v>-1</v>
+      </c>
+      <c r="F59" s="54"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="55">
         <v>-1</v>
       </c>
       <c r="O59" s="18">
@@ -4077,89 +4083,89 @@
         <v>998</v>
       </c>
     </row>
-    <row r="60" ht="31.2" spans="1:15">
-      <c r="A60" s="36">
+    <row r="60" ht="15.6" spans="1:15">
+      <c r="A60" s="37">
         <v>59</v>
       </c>
-      <c r="B60" s="56" t="s">
+      <c r="B60" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="54">
-        <v>1000</v>
-      </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52">
+      <c r="C60" s="56">
+        <v>1000</v>
+      </c>
+      <c r="D60" s="53"/>
+      <c r="E60" s="54">
         <v>-5</v>
       </c>
-      <c r="F60" s="52">
+      <c r="F60" s="54">
         <v>-6</v>
       </c>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="53">
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="55">
         <v>1</v>
       </c>
-      <c r="O60" s="39">
+      <c r="O60" s="40">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
     </row>
-    <row r="61" ht="31.2" spans="1:15">
-      <c r="A61" s="36">
+    <row r="61" ht="15.6" spans="1:15">
+      <c r="A61" s="37">
         <v>60</v>
       </c>
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D61" s="51"/>
-      <c r="E61" s="52">
-        <v>-1</v>
-      </c>
-      <c r="F61" s="52"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="53">
+      <c r="C61" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D61" s="53"/>
+      <c r="E61" s="54">
+        <v>-1</v>
+      </c>
+      <c r="F61" s="54"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="55">
         <v>-0.5</v>
       </c>
-      <c r="O61" s="39">
+      <c r="O61" s="40">
         <f t="shared" si="0"/>
         <v>998.5</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" spans="1:15">
-      <c r="A62" s="36">
+      <c r="A62" s="37">
         <v>61</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="37">
-        <v>1000</v>
-      </c>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="49">
+      <c r="C62" s="38">
+        <v>1000</v>
+      </c>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="51">
         <v>4</v>
       </c>
       <c r="O62" s="18">
@@ -4171,7 +4177,7 @@
       <c r="A63" s="13">
         <v>62</v>
       </c>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="43" t="s">
         <v>76</v>
       </c>
       <c r="C63" s="21">
@@ -4187,10 +4193,10 @@
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
       <c r="M63" s="19"/>
-      <c r="N63" s="57">
+      <c r="N63" s="59">
         <v>17.5</v>
       </c>
-      <c r="O63" s="39">
+      <c r="O63" s="40">
         <f t="shared" si="0"/>
         <v>1017.5</v>
       </c>
@@ -4199,7 +4205,7 @@
       <c r="A64" s="13">
         <v>63</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="21">
@@ -4215,7 +4221,7 @@
       <c r="K64" s="18"/>
       <c r="L64" s="18"/>
       <c r="M64" s="19"/>
-      <c r="N64" s="57">
+      <c r="N64" s="59">
         <v>6.5</v>
       </c>
       <c r="O64" s="18">
@@ -4227,7 +4233,7 @@
       <c r="A65" s="13">
         <v>64</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="43" t="s">
         <v>78</v>
       </c>
       <c r="C65" s="21">
@@ -4245,7 +4251,7 @@
       <c r="K65" s="18"/>
       <c r="L65" s="18"/>
       <c r="M65" s="19"/>
-      <c r="N65" s="57">
+      <c r="N65" s="59">
         <v>17.5</v>
       </c>
       <c r="O65" s="18">
@@ -4253,17 +4259,17 @@
         <v>1016.5</v>
       </c>
     </row>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="90" spans="2:2">
-      <c r="B90" s="58"/>
+    <row r="66" ht="13.2"/>
+    <row r="67" ht="13.2"/>
+    <row r="68" ht="13.2"/>
+    <row r="69" ht="13.2"/>
+    <row r="70" ht="13.2"/>
+    <row r="71" ht="13.2"/>
+    <row r="72" ht="13.2"/>
+    <row r="73" ht="13.2"/>
+    <row r="74" ht="13.2"/>
+    <row r="90" ht="13.2" spans="2:2">
+      <c r="B90" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
